--- a/Data_science_outputs_highlands/Graphs/Third/2/Montlhy_consumption_1.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/2/Montlhy_consumption_1.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1936.884929333338</v>
+        <v>1864.153702966671</v>
       </c>
       <c r="C2" t="n">
-        <v>1936.884929333338</v>
+        <v>1864.153702966671</v>
       </c>
       <c r="D2" t="n">
-        <v>1936.884929333338</v>
+        <v>1864.153702966671</v>
       </c>
       <c r="E2" t="n">
-        <v>1936.884929333338</v>
+        <v>1864.153702966671</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1822.307505616671</v>
+        <v>1745.367503883338</v>
       </c>
       <c r="C3" t="n">
-        <v>1822.307505616671</v>
+        <v>1745.367503883338</v>
       </c>
       <c r="D3" t="n">
-        <v>1822.307505616671</v>
+        <v>1745.367503883338</v>
       </c>
       <c r="E3" t="n">
-        <v>1822.307505616671</v>
+        <v>1745.367503883338</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1937.947136200005</v>
+        <v>1856.789400866671</v>
       </c>
       <c r="C4" t="n">
-        <v>1937.947136200005</v>
+        <v>1856.789400866671</v>
       </c>
       <c r="D4" t="n">
-        <v>1937.947136200005</v>
+        <v>1856.789400866671</v>
       </c>
       <c r="E4" t="n">
-        <v>1937.947136200005</v>
+        <v>1856.789400866671</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1877.729014466671</v>
+        <v>1799.337939066671</v>
       </c>
       <c r="C5" t="n">
-        <v>1877.729014466671</v>
+        <v>1799.337939066671</v>
       </c>
       <c r="D5" t="n">
-        <v>1877.729014466671</v>
+        <v>1799.337939066671</v>
       </c>
       <c r="E5" t="n">
-        <v>1877.729014466671</v>
+        <v>1799.337939066671</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1944.102600533338</v>
+        <v>1869.137642616671</v>
       </c>
       <c r="C6" t="n">
-        <v>1944.102600533338</v>
+        <v>1869.137642616671</v>
       </c>
       <c r="D6" t="n">
-        <v>1944.102600533338</v>
+        <v>1869.137642616671</v>
       </c>
       <c r="E6" t="n">
-        <v>1944.102600533338</v>
+        <v>1869.137642616671</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1876.943253516671</v>
+        <v>1807.421284666671</v>
       </c>
       <c r="C7" t="n">
-        <v>1876.943253516671</v>
+        <v>1807.421284666671</v>
       </c>
       <c r="D7" t="n">
-        <v>1876.943253516671</v>
+        <v>1807.421284666671</v>
       </c>
       <c r="E7" t="n">
-        <v>1876.943253516671</v>
+        <v>1807.421284666671</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1946.152449300005</v>
+        <v>1866.708040500005</v>
       </c>
       <c r="C8" t="n">
-        <v>1946.152449300005</v>
+        <v>1866.708040500005</v>
       </c>
       <c r="D8" t="n">
-        <v>1946.152449300005</v>
+        <v>1866.708040500005</v>
       </c>
       <c r="E8" t="n">
-        <v>1946.152449300005</v>
+        <v>1866.708040500005</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1941.557828583338</v>
+        <v>1858.667584266671</v>
       </c>
       <c r="C9" t="n">
-        <v>1941.557828583338</v>
+        <v>1858.667584266671</v>
       </c>
       <c r="D9" t="n">
-        <v>1941.557828583338</v>
+        <v>1858.667584266671</v>
       </c>
       <c r="E9" t="n">
-        <v>1941.557828583338</v>
+        <v>1858.667584266671</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1876.115022150005</v>
+        <v>1806.061802616671</v>
       </c>
       <c r="C10" t="n">
-        <v>1876.115022150005</v>
+        <v>1806.061802616671</v>
       </c>
       <c r="D10" t="n">
-        <v>1876.115022150005</v>
+        <v>1806.061802616671</v>
       </c>
       <c r="E10" t="n">
-        <v>1876.115022150005</v>
+        <v>1806.061802616671</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1940.003850866671</v>
+        <v>1867.674407400005</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.003850866671</v>
+        <v>1867.674407400005</v>
       </c>
       <c r="D11" t="n">
-        <v>1940.003850866671</v>
+        <v>1867.674407400005</v>
       </c>
       <c r="E11" t="n">
-        <v>1940.003850866671</v>
+        <v>1867.674407400005</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1871.223879700005</v>
+        <v>1810.024469883338</v>
       </c>
       <c r="C12" t="n">
-        <v>1871.223879700005</v>
+        <v>1810.024469883338</v>
       </c>
       <c r="D12" t="n">
-        <v>1871.223879700005</v>
+        <v>1810.024469883338</v>
       </c>
       <c r="E12" t="n">
-        <v>1871.223879700005</v>
+        <v>1810.024469883338</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1877.019384600005</v>
+        <v>1793.034584150004</v>
       </c>
       <c r="C13" t="n">
-        <v>1877.019384600005</v>
+        <v>1793.034584150004</v>
       </c>
       <c r="D13" t="n">
-        <v>1877.019384600005</v>
+        <v>1793.034584150004</v>
       </c>
       <c r="E13" t="n">
-        <v>1877.019384600005</v>
+        <v>1793.034584150004</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
